--- a/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/outputo.xlsx
+++ b/ConsoleApp1/ConsoleApp1/bin/Debug/net6.0/outputo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VLI MOX\ConsoleApp1\ConsoleApp1\bin\Debug\net6.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7EE12A-7FAB-4709-BB75-6F22569F80D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB534CE-2915-4ED0-B223-BAF414334C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="atks" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,54 +59,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지정사수소총</t>
-  </si>
-  <si>
-    <t>지정사수소총</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅏ</t>
   </si>
   <si>
-    <t>ㅏ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>o</t>
+  </si>
+  <si>
+    <t>리볼버</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>식칼</t>
   </si>
   <si>
     <t>신병</t>
   </si>
   <si>
-    <t>볼트액션 소총</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기간병</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ou</t>
-  </si>
-  <si>
-    <t>신병</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼트액션 소총</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>egw</t>
+  </si>
+  <si>
+    <t>산탄총</t>
   </si>
 </sst>
 </file>
@@ -429,10 +406,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,80 +447,48 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>600</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>690</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -555,10 +500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E058220-AB4D-4606-8BFE-DC9739F74FA5}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,53 +540,24 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>352</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
         <v>2</v>
       </c>
     </row>
